--- a/manpower_log/Attandance_Log/Attandance_2.xlsx
+++ b/manpower_log/Attandance_Log/Attandance_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\Attandance_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F33182D-E707-4C8F-B33B-B36CAB4BA936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769FE56-047D-4962-839A-76C1F6E519F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68AD9F5-4B23-9D47-923A-70A1A7C1B1C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="237">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>Imad Zahid</t>
-  </si>
-  <si>
-    <t>Lahssaine Sarrari</t>
   </si>
   <si>
     <t>Ali Sanjar</t>
@@ -1279,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564D37DD-F9B3-624B-8453-57ADF9C7FF01}">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D203"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="18"/>
@@ -2215,30 +2212,30 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="12">
-        <v>3839</v>
+        <v>3001</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C56" s="12">
-        <v>3001</v>
+        <v>2581</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>59</v>
@@ -2249,30 +2246,30 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="12">
-        <v>2581</v>
+        <v>2660</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="12">
-        <v>2660</v>
+        <v>3147</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>59</v>
@@ -2283,13 +2280,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="12">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>59</v>
@@ -2300,13 +2297,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="12">
-        <v>3148</v>
+        <v>3002</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>59</v>
@@ -2317,13 +2314,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C61" s="12">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>59</v>
@@ -2334,13 +2331,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="12">
-        <v>3000</v>
+        <v>3146</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>59</v>
@@ -2351,13 +2348,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="12">
-        <v>3146</v>
+        <v>4140</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>59</v>
@@ -2368,152 +2365,152 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="10">
-        <v>54</v>
-      </c>
-      <c r="B64" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="12">
-        <v>4140</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="C64" s="13">
+        <v>2165</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="10">
-        <v>88</v>
-      </c>
-      <c r="B65" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1894</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="13">
-        <v>2165</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C66" s="11">
-        <v>1894</v>
+        <v>2169</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="11">
-        <v>2169</v>
+        <v>1687</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="10">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C68" s="11">
-        <v>1687</v>
+        <v>3091</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="11">
+        <v>3161</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="11">
-        <v>3091</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C70" s="11">
-        <v>3161</v>
+        <v>3092</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C71" s="11">
-        <v>3092</v>
+        <v>3199</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C72" s="11">
-        <v>3199</v>
+        <v>3009</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>7</v>
@@ -2521,135 +2518,135 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C73" s="11">
-        <v>3009</v>
+        <v>3231</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="10">
+        <v>98</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="11">
+        <v>3106</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C74" s="11">
-        <v>3231</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C75" s="11">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="11">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="11">
-        <v>3103</v>
+        <v>3108</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C78" s="11">
-        <v>3108</v>
+        <v>3230</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C79" s="11">
-        <v>3230</v>
+        <v>3156</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="10">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C80" s="11">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>7</v>
@@ -2657,16 +2654,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C81" s="11">
-        <v>3159</v>
+        <v>1949</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>7</v>
@@ -2674,16 +2671,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="11">
-        <v>1949</v>
+        <v>3158</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>7</v>
@@ -2691,16 +2688,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C83" s="11">
-        <v>3158</v>
+        <v>2079</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>7</v>
@@ -2708,16 +2705,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="10">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C84" s="11">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>7</v>
@@ -2725,16 +2722,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="11">
-        <v>2083</v>
+        <v>3014</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>7</v>
@@ -2742,50 +2739,50 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="10">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="11">
-        <v>3014</v>
+        <v>2897</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C87" s="11">
-        <v>2897</v>
+        <v>3070</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="10">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C88" s="11">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>7</v>
@@ -2793,16 +2790,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C89" s="11">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>7</v>
@@ -2810,16 +2807,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="11">
-        <v>3073</v>
+        <v>3171</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>7</v>
@@ -2827,67 +2824,67 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="10">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C91" s="11">
-        <v>3171</v>
+        <v>2906</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C92" s="11">
-        <v>2906</v>
+        <v>3016</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="10">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C93" s="11">
-        <v>3016</v>
+        <v>2813</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C94" s="11">
-        <v>2813</v>
+        <v>2803</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>40</v>
@@ -2895,16 +2892,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C95" s="11">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>40</v>
@@ -2912,33 +2909,33 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C96" s="11">
-        <v>2802</v>
+        <v>4158</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C97" s="11">
-        <v>4158</v>
+        <v>4169</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>7</v>
@@ -2946,16 +2943,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C98" s="11">
-        <v>4169</v>
+        <v>4164</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>7</v>
@@ -2963,16 +2960,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C99" s="11">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>7</v>
@@ -2980,16 +2977,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C100" s="11">
-        <v>4162</v>
+        <v>4165</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>7</v>
@@ -2997,16 +2994,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C101" s="11">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>7</v>
@@ -3014,16 +3011,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C102" s="11">
-        <v>4166</v>
+        <v>4157</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>7</v>
@@ -3031,16 +3028,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="10">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C103" s="11">
-        <v>4157</v>
+        <v>4163</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>7</v>
@@ -3048,16 +3045,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C104" s="11">
-        <v>4163</v>
+        <v>4173</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>7</v>
@@ -3065,16 +3062,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="10">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C105" s="11">
-        <v>4173</v>
+        <v>4156</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>7</v>
@@ -3082,16 +3079,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C106" s="11">
-        <v>4156</v>
+        <v>4174</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>7</v>
@@ -3099,16 +3096,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C107" s="11">
-        <v>4174</v>
+        <v>4179</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>7</v>
@@ -3116,16 +3113,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="10">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="11">
-        <v>4179</v>
+      <c r="C108" s="14">
+        <v>4203</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>7</v>
@@ -3133,16 +3130,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="14">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>7</v>
@@ -3150,16 +3147,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="10">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="14">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>7</v>
@@ -3167,16 +3164,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C111" s="14">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>7</v>
@@ -3184,16 +3181,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="10">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C112" s="14">
-        <v>4207</v>
+        <v>2647</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>7</v>
@@ -3201,16 +3198,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C113" s="14">
-        <v>2647</v>
+        <v>3078</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>7</v>
@@ -3218,16 +3215,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="10">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C114" s="14">
-        <v>3078</v>
+        <v>2088</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>7</v>
@@ -3235,16 +3232,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C115" s="14">
-        <v>2088</v>
+        <v>2964</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>7</v>
@@ -3252,16 +3249,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C116" s="14">
-        <v>2964</v>
+        <v>3254</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>7</v>
@@ -3269,16 +3266,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C117" s="14">
-        <v>3254</v>
+        <v>3260</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>7</v>
@@ -3286,33 +3283,33 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C118" s="14">
-        <v>3260</v>
+        <v>1896</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C119" s="14">
-        <v>1896</v>
+        <v>1916</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>32</v>
@@ -3320,50 +3317,50 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="10">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C120" s="14">
-        <v>1916</v>
+        <v>2864</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="14">
-        <v>2864</v>
+      <c r="C121" s="11">
+        <v>2649</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="10">
-        <v>152</v>
-      </c>
-      <c r="B122" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C122" s="11">
-        <v>2649</v>
+        <v>3098</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>32</v>
@@ -3371,33 +3368,33 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="10">
-        <v>153</v>
-      </c>
-      <c r="B123" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C123" s="11">
-        <v>3098</v>
+        <v>4785</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="10">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C124" s="11">
-        <v>4785</v>
+        <v>4786</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>40</v>
@@ -3405,16 +3402,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C125" s="11">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>40</v>
@@ -3422,16 +3419,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C126" s="11">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>40</v>
@@ -3439,16 +3436,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C127" s="11">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>40</v>
@@ -3456,33 +3453,33 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="10">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C128" s="11">
-        <v>4789</v>
+      <c r="C128" s="14">
+        <v>4812</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C129" s="14">
-        <v>4812</v>
+        <v>4811</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>7</v>
@@ -3490,50 +3487,50 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C130" s="14">
-        <v>4811</v>
+      <c r="C130" s="11">
+        <v>2220</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C131" s="11">
-        <v>2220</v>
+        <v>2983</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C132" s="11">
-        <v>2983</v>
+        <v>4160</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>7</v>
@@ -3541,16 +3538,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C133" s="11">
-        <v>4160</v>
+      <c r="C133" s="14">
+        <v>4780</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>7</v>
@@ -3558,16 +3555,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="10">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C134" s="14">
-        <v>4780</v>
+        <v>4558</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>7</v>
@@ -3575,67 +3572,67 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C135" s="14">
-        <v>4558</v>
+        <v>4570</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C136" s="14">
-        <v>4570</v>
+        <v>4771</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>162</v>
       </c>
       <c r="C137" s="14">
-        <v>4771</v>
+        <v>4782</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="10">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>163</v>
       </c>
       <c r="C138" s="14">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>40</v>
@@ -3643,16 +3640,16 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C139" s="14">
-        <v>4783</v>
+        <v>4790</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>40</v>
@@ -3660,101 +3657,101 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="10">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C140" s="14">
-        <v>4790</v>
+      <c r="C140" s="11">
+        <v>2015</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C141" s="11">
-        <v>2015</v>
+        <v>2997</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C142" s="11">
-        <v>2997</v>
+        <v>3100</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C143" s="11">
-        <v>3100</v>
+        <v>2867</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="10">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C144" s="11">
-        <v>2867</v>
+        <v>2812</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C145" s="11">
-        <v>2812</v>
+        <v>2796</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>40</v>
@@ -3762,67 +3759,67 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="10">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C146" s="11">
-        <v>2796</v>
+        <v>1362</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="10">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" s="11">
+        <v>1774</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="C147" s="11">
-        <v>1362</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="10">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C148" s="11">
-        <v>1774</v>
+        <v>1647</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="10">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C149" s="11">
-        <v>1647</v>
+        <v>2207</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E149" s="11" t="s">
         <v>7</v>
@@ -3830,16 +3827,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="10">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" s="11">
+        <v>2178</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="C150" s="11">
-        <v>2207</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="E150" s="11" t="s">
         <v>7</v>
@@ -3847,16 +3844,16 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="10">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C151" s="11">
-        <v>2178</v>
+        <v>1926</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>7</v>
@@ -3864,784 +3861,784 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="10">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C152" s="11">
-        <v>1926</v>
+        <v>1277</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="10">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C153" s="11">
-        <v>1277</v>
+        <v>1695</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="10">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="11">
+        <v>3301</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C154" s="11">
-        <v>1695</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="E154" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C155" s="11">
-        <v>3301</v>
+        <v>3119</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C156" s="11">
-        <v>3119</v>
+        <v>3319</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="10">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C157" s="11">
-        <v>3319</v>
+        <v>3143</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B158" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C158" s="11">
-        <v>3143</v>
+        <v>3176</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C159" s="11">
-        <v>3176</v>
+        <v>3300</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B160" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C160" s="11">
-        <v>3300</v>
+        <v>3185</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="10">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B161" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C161" s="11">
-        <v>3185</v>
+        <v>3116</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B162" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C162" s="11">
-        <v>3116</v>
+        <v>2180</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="10">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>192</v>
       </c>
       <c r="C163" s="11">
-        <v>2180</v>
+        <v>4736</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="10">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B164" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C164" s="11">
-        <v>4736</v>
+        <v>4629</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B165" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C165" s="11">
-        <v>4629</v>
+        <v>4625</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="10">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B166" s="11" t="s">
         <v>195</v>
       </c>
       <c r="C166" s="11">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B167" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C167" s="11">
-        <v>4626</v>
+        <v>4619</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C168" s="11">
-        <v>4619</v>
+        <v>4631</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B169" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C169" s="11">
-        <v>4631</v>
+        <v>4628</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B170" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C170" s="11">
-        <v>4628</v>
+        <v>4630</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="10">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B171" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C171" s="11">
-        <v>4630</v>
+        <v>4622</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="10">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C172" s="11">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="10">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C173" s="11">
-        <v>4623</v>
+        <v>4181</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="10">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C174" s="11">
-        <v>4181</v>
+        <v>4412</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="10">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B175" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C175" s="11">
-        <v>4412</v>
+        <v>4180</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="10">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C176" s="11">
-        <v>4180</v>
+        <v>4620</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="10">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B177" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C177" s="11">
-        <v>4620</v>
+        <v>2423</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="10">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C178" s="11">
-        <v>2423</v>
+        <v>2060</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B179" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C179" s="11">
-        <v>2060</v>
+        <v>3122</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="10">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B180" s="11" t="s">
         <v>209</v>
       </c>
       <c r="C180" s="11">
-        <v>3122</v>
+        <v>2022</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="10">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C181" s="11">
-        <v>2022</v>
+        <v>3113</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B182" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C182" s="11">
-        <v>3113</v>
+        <v>3178</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C183" s="11">
-        <v>3178</v>
+        <v>3123</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="10">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C184" s="11">
-        <v>3123</v>
+        <v>4609</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="10">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B185" s="11" t="s">
         <v>214</v>
       </c>
       <c r="C185" s="11">
-        <v>4609</v>
+        <v>4603</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B186" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C186" s="11">
-        <v>4603</v>
+        <v>4607</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="10">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B187" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C187" s="11">
-        <v>4607</v>
+        <v>4606</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="10">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C188" s="11">
-        <v>4606</v>
+        <v>4610</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="10">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B189" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C189" s="11">
-        <v>4610</v>
+        <v>4601</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="10">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B190" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C190" s="11">
-        <v>4601</v>
+        <v>4618</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="10">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B191" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C191" s="11">
-        <v>4618</v>
+        <v>1615</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="10">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B192" s="11" t="s">
         <v>221</v>
       </c>
       <c r="C192" s="11">
-        <v>1615</v>
+        <v>2128</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="10">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B193" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C193" s="11">
-        <v>2128</v>
+        <v>1945</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="10">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C194" s="11">
-        <v>1945</v>
+        <v>1619</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="10">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="C195" s="11">
-        <v>1619</v>
+        <v>3724</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>226</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="10">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="C196" s="11">
-        <v>3724</v>
+        <v>3062</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="10">
         <v>236</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C197" s="11">
-        <v>3062</v>
-      </c>
-      <c r="D197" s="11" t="s">
+      <c r="B197" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E197" s="16" t="s">
-        <v>173</v>
+      <c r="C197" s="17">
+        <v>4851</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E197" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4649,13 +4646,13 @@
         <v>236</v>
       </c>
       <c r="B198" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C198" s="17">
+        <v>4850</v>
+      </c>
+      <c r="D198" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="C198" s="17">
-        <v>4851</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="E198" s="17" t="s">
         <v>40</v>
@@ -4665,17 +4662,17 @@
       <c r="A199" s="10">
         <v>236</v>
       </c>
-      <c r="B199" s="17" t="s">
+      <c r="B199" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C199" s="17">
-        <v>4850</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E199" s="17" t="s">
-        <v>40</v>
+      <c r="C199" s="1">
+        <v>3269</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4686,13 +4683,10 @@
         <v>233</v>
       </c>
       <c r="C200" s="1">
-        <v>3269</v>
+        <v>1805</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4703,10 +4697,10 @@
         <v>234</v>
       </c>
       <c r="C201" s="1">
-        <v>1805</v>
+        <v>4401</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4717,24 +4711,10 @@
         <v>235</v>
       </c>
       <c r="C202" s="1">
-        <v>4401</v>
+        <v>2066</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="10">
         <v>236</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C203" s="1">
-        <v>2066</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/manpower_log/Attandance_Log/Attandance_2.xlsx
+++ b/manpower_log/Attandance_Log/Attandance_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\Attandance_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769FE56-047D-4962-839A-76C1F6E519F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C3E3A-B222-4798-915C-B1DB4372997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68AD9F5-4B23-9D47-923A-70A1A7C1B1C4}"/>
   </bookViews>
@@ -744,7 +744,7 @@
     <t xml:space="preserve">Waseem Khan </t>
   </si>
   <si>
-    <t>Don’t Know</t>
+    <t>Gypsum</t>
   </si>
 </sst>
 </file>
@@ -1278,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564D37DD-F9B3-624B-8453-57ADF9C7FF01}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="18"/>

--- a/manpower_log/Attandance_Log/Attandance_2.xlsx
+++ b/manpower_log/Attandance_Log/Attandance_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\manpower_log\Attandance_Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C3E3A-B222-4798-915C-B1DB4372997A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F13FE8B-E451-4166-B7F6-1635AA2867A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D68AD9F5-4B23-9D47-923A-70A1A7C1B1C4}"/>
+    <workbookView xWindow="348" yWindow="180" windowWidth="11664" windowHeight="12060" xr2:uid="{D68AD9F5-4B23-9D47-923A-70A1A7C1B1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" zoomScale="118" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+      <selection activeCell="D2" sqref="D2:D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="18"/>
